--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.29761233333333</v>
+        <v>16.37389066666667</v>
       </c>
       <c r="H2">
-        <v>63.892837</v>
+        <v>49.121672</v>
       </c>
       <c r="I2">
-        <v>0.07945479053849795</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="J2">
-        <v>0.07945479053849797</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N2">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O2">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P2">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q2">
-        <v>514.3694262525822</v>
+        <v>453.2468300902374</v>
       </c>
       <c r="R2">
-        <v>4629.32483627324</v>
+        <v>4079.221470812137</v>
       </c>
       <c r="S2">
-        <v>0.00458055811972557</v>
+        <v>0.004776517526896641</v>
       </c>
       <c r="T2">
-        <v>0.00458055811972557</v>
+        <v>0.004776517526896641</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.29761233333333</v>
+        <v>16.37389066666667</v>
       </c>
       <c r="H3">
-        <v>63.892837</v>
+        <v>49.121672</v>
       </c>
       <c r="I3">
-        <v>0.07945479053849795</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="J3">
-        <v>0.07945479053849797</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.291612</v>
       </c>
       <c r="O3">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P3">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q3">
-        <v>2.070213109249333</v>
+        <v>1.591607668362667</v>
       </c>
       <c r="R3">
-        <v>18.631917983244</v>
+        <v>14.324469015264</v>
       </c>
       <c r="S3">
-        <v>1.843564368944012E-05</v>
+        <v>1.677307246112194E-05</v>
       </c>
       <c r="T3">
-        <v>1.843564368944012E-05</v>
+        <v>1.677307246112193E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.29761233333333</v>
+        <v>16.37389066666667</v>
       </c>
       <c r="H4">
-        <v>63.892837</v>
+        <v>49.121672</v>
       </c>
       <c r="I4">
-        <v>0.07945479053849795</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="J4">
-        <v>0.07945479053849797</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N4">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O4">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P4">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q4">
-        <v>3398.081122605794</v>
+        <v>4458.064812290576</v>
       </c>
       <c r="R4">
-        <v>30582.73010345214</v>
+        <v>40122.58331061518</v>
       </c>
       <c r="S4">
-        <v>0.03026056231809328</v>
+        <v>0.04698107807551057</v>
       </c>
       <c r="T4">
-        <v>0.03026056231809328</v>
+        <v>0.04698107807551057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.29761233333333</v>
+        <v>16.37389066666667</v>
       </c>
       <c r="H5">
-        <v>63.892837</v>
+        <v>49.121672</v>
       </c>
       <c r="I5">
-        <v>0.07945479053849795</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="J5">
-        <v>0.07945479053849797</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N5">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O5">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P5">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q5">
-        <v>206.2849956729371</v>
+        <v>192.1503141232569</v>
       </c>
       <c r="R5">
-        <v>1856.564961056434</v>
+        <v>1729.352827109312</v>
       </c>
       <c r="S5">
-        <v>0.001837007340796401</v>
+        <v>0.002024965829381982</v>
       </c>
       <c r="T5">
-        <v>0.0018370073407964</v>
+        <v>0.002024965829381982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.29761233333333</v>
+        <v>16.37389066666667</v>
       </c>
       <c r="H6">
-        <v>63.892837</v>
+        <v>49.121672</v>
       </c>
       <c r="I6">
-        <v>0.07945479053849795</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="J6">
-        <v>0.07945479053849797</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N6">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O6">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P6">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q6">
-        <v>4801.494528498987</v>
+        <v>3877.592033025805</v>
       </c>
       <c r="R6">
-        <v>43213.45075649089</v>
+        <v>34898.32829723224</v>
       </c>
       <c r="S6">
-        <v>0.04275822711619327</v>
+        <v>0.04086379667391186</v>
       </c>
       <c r="T6">
-        <v>0.04275822711619327</v>
+        <v>0.04086379667391186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>217.624695</v>
       </c>
       <c r="I7">
-        <v>0.270630095158077</v>
+        <v>0.4193879037829277</v>
       </c>
       <c r="J7">
-        <v>0.2706300951580771</v>
+        <v>0.4193879037829278</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N7">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O7">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P7">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q7">
-        <v>1751.988090707933</v>
+        <v>2008.028211216115</v>
       </c>
       <c r="R7">
-        <v>15767.8928163714</v>
+        <v>18072.25390094504</v>
       </c>
       <c r="S7">
-        <v>0.01560178903520986</v>
+        <v>0.02116149812557349</v>
       </c>
       <c r="T7">
-        <v>0.01560178903520986</v>
+        <v>0.02116149812557349</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>217.624695</v>
       </c>
       <c r="I8">
-        <v>0.270630095158077</v>
+        <v>0.4193879037829277</v>
       </c>
       <c r="J8">
-        <v>0.2706300951580771</v>
+        <v>0.4193879037829278</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.291612</v>
       </c>
       <c r="O8">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P8">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q8">
         <v>7.051330284260001</v>
@@ -948,10 +948,10 @@
         <v>63.46197255834001</v>
       </c>
       <c r="S8">
-        <v>6.27934448276742E-05</v>
+        <v>7.431006783654598E-05</v>
       </c>
       <c r="T8">
-        <v>6.27934448276742E-05</v>
+        <v>7.431006783654598E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>217.624695</v>
       </c>
       <c r="I9">
-        <v>0.270630095158077</v>
+        <v>0.4193879037829277</v>
       </c>
       <c r="J9">
-        <v>0.2706300951580771</v>
+        <v>0.4193879037829278</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N9">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O9">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P9">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q9">
-        <v>11574.16703678917</v>
+        <v>19750.65089529055</v>
       </c>
       <c r="R9">
-        <v>104167.5033311025</v>
+        <v>177755.858057615</v>
       </c>
       <c r="S9">
-        <v>0.103070171152418</v>
+        <v>0.208141180270781</v>
       </c>
       <c r="T9">
-        <v>0.103070171152418</v>
+        <v>0.208141180270781</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>217.624695</v>
       </c>
       <c r="I10">
-        <v>0.270630095158077</v>
+        <v>0.4193879037829277</v>
       </c>
       <c r="J10">
-        <v>0.2706300951580771</v>
+        <v>0.4193879037829278</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N10">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O10">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P10">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q10">
-        <v>702.6250730797768</v>
+        <v>851.2872588137467</v>
       </c>
       <c r="R10">
-        <v>6323.625657717991</v>
+        <v>7661.585329323721</v>
       </c>
       <c r="S10">
-        <v>0.006257010660734594</v>
+        <v>0.008971245339626791</v>
       </c>
       <c r="T10">
-        <v>0.006257010660734594</v>
+        <v>0.008971245339626791</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>217.624695</v>
       </c>
       <c r="I11">
-        <v>0.270630095158077</v>
+        <v>0.4193879037829277</v>
       </c>
       <c r="J11">
-        <v>0.2706300951580771</v>
+        <v>0.4193879037829278</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N11">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O11">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P11">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q11">
-        <v>16354.31812659627</v>
+        <v>17178.97109694618</v>
       </c>
       <c r="R11">
-        <v>147188.8631393665</v>
+        <v>154610.7398725157</v>
       </c>
       <c r="S11">
-        <v>0.145638330864887</v>
+        <v>0.1810396699791099</v>
       </c>
       <c r="T11">
-        <v>0.145638330864887</v>
+        <v>0.1810396699791099</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>71.11627966666667</v>
+        <v>26.10071233333333</v>
       </c>
       <c r="H12">
-        <v>213.348839</v>
+        <v>78.302137</v>
       </c>
       <c r="I12">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="J12">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N12">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O12">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P12">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q12">
-        <v>1717.565302478031</v>
+        <v>722.4956712495757</v>
       </c>
       <c r="R12">
-        <v>15458.08772230228</v>
+        <v>6502.461041246182</v>
       </c>
       <c r="S12">
-        <v>0.01529524752227661</v>
+        <v>0.00761398206832133</v>
       </c>
       <c r="T12">
-        <v>0.01529524752227661</v>
+        <v>0.00761398206832133</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>71.11627966666667</v>
+        <v>26.10071233333333</v>
       </c>
       <c r="H13">
-        <v>213.348839</v>
+        <v>78.302137</v>
       </c>
       <c r="I13">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="J13">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.291612</v>
       </c>
       <c r="O13">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P13">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q13">
-        <v>6.912786848718667</v>
+        <v>2.537093641649333</v>
       </c>
       <c r="R13">
-        <v>62.21508163846799</v>
+        <v>22.833842774844</v>
       </c>
       <c r="S13">
-        <v>6.155968903618611E-05</v>
+        <v>2.673702592537357E-05</v>
       </c>
       <c r="T13">
-        <v>6.15596890361861E-05</v>
+        <v>2.673702592537357E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>71.11627966666667</v>
+        <v>26.10071233333333</v>
       </c>
       <c r="H14">
-        <v>213.348839</v>
+        <v>78.302137</v>
       </c>
       <c r="I14">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="J14">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N14">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O14">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P14">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q14">
-        <v>11346.75961150016</v>
+        <v>7106.354231730058</v>
       </c>
       <c r="R14">
-        <v>102120.8365035014</v>
+        <v>63957.18808557052</v>
       </c>
       <c r="S14">
-        <v>0.1010450645359878</v>
+        <v>0.07488993477006087</v>
       </c>
       <c r="T14">
-        <v>0.1010450645359878</v>
+        <v>0.07488993477006087</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>71.11627966666667</v>
+        <v>26.10071233333333</v>
       </c>
       <c r="H15">
-        <v>213.348839</v>
+        <v>78.302137</v>
       </c>
       <c r="I15">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="J15">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N15">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O15">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P15">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q15">
-        <v>688.8200054403776</v>
+        <v>306.2961745494391</v>
       </c>
       <c r="R15">
-        <v>6199.380048963398</v>
+        <v>2756.665570944952</v>
       </c>
       <c r="S15">
-        <v>0.006134073893031067</v>
+        <v>0.003227885886958135</v>
       </c>
       <c r="T15">
-        <v>0.006134073893031065</v>
+        <v>0.003227885886958134</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>71.11627966666667</v>
+        <v>26.10071233333333</v>
       </c>
       <c r="H16">
-        <v>213.348839</v>
+        <v>78.302137</v>
       </c>
       <c r="I16">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="J16">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N16">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O16">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P16">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q16">
-        <v>16032.99103967025</v>
+        <v>6181.054720614866</v>
       </c>
       <c r="R16">
-        <v>144296.9193570322</v>
+        <v>55629.4924855338</v>
       </c>
       <c r="S16">
-        <v>0.1427768516983861</v>
+        <v>0.06513871525995268</v>
       </c>
       <c r="T16">
-        <v>0.142776851698386</v>
+        <v>0.06513871525995268</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>56.240078</v>
+        <v>27.85999533333333</v>
       </c>
       <c r="H17">
-        <v>168.720234</v>
+        <v>83.57998600000001</v>
       </c>
       <c r="I17">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617304</v>
       </c>
       <c r="J17">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617305</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N17">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O17">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P17">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q17">
-        <v>1358.282618750853</v>
+        <v>771.1945088816688</v>
       </c>
       <c r="R17">
-        <v>12224.54356875768</v>
+        <v>6940.750579935019</v>
       </c>
       <c r="S17">
-        <v>0.01209576650682608</v>
+        <v>0.008127192169411006</v>
       </c>
       <c r="T17">
-        <v>0.01209576650682608</v>
+        <v>0.008127192169411006</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>56.240078</v>
+        <v>27.85999533333333</v>
       </c>
       <c r="H18">
-        <v>168.720234</v>
+        <v>83.57998600000001</v>
       </c>
       <c r="I18">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617304</v>
       </c>
       <c r="J18">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617305</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.291612</v>
       </c>
       <c r="O18">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P18">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q18">
-        <v>5.466760541912</v>
+        <v>2.708102986381333</v>
       </c>
       <c r="R18">
-        <v>49.200844877208</v>
+        <v>24.372926877432</v>
       </c>
       <c r="S18">
-        <v>4.868254820525438E-05</v>
+        <v>2.853919877722316E-05</v>
       </c>
       <c r="T18">
-        <v>4.868254820525437E-05</v>
+        <v>2.853919877722316E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>56.240078</v>
+        <v>27.85999533333333</v>
       </c>
       <c r="H19">
-        <v>168.720234</v>
+        <v>83.57998600000001</v>
       </c>
       <c r="I19">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617304</v>
       </c>
       <c r="J19">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617305</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N19">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O19">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P19">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q19">
-        <v>8973.228754219072</v>
+        <v>7585.348369215505</v>
       </c>
       <c r="R19">
-        <v>80759.05878797165</v>
+        <v>68268.13532293955</v>
       </c>
       <c r="S19">
-        <v>0.07990831828738924</v>
+        <v>0.07993778892168167</v>
       </c>
       <c r="T19">
-        <v>0.07990831828738924</v>
+        <v>0.07993778892168167</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.240078</v>
+        <v>27.85999533333333</v>
       </c>
       <c r="H20">
-        <v>168.720234</v>
+        <v>83.57998600000001</v>
       </c>
       <c r="I20">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617304</v>
       </c>
       <c r="J20">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617305</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N20">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O20">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P20">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q20">
-        <v>544.7316847211987</v>
+        <v>326.9416514225618</v>
       </c>
       <c r="R20">
-        <v>4902.585162490788</v>
+        <v>2942.474862803056</v>
       </c>
       <c r="S20">
-        <v>0.004850939838512515</v>
+        <v>0.003445457143035042</v>
       </c>
       <c r="T20">
-        <v>0.004850939838512514</v>
+        <v>0.003445457143035042</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.240078</v>
+        <v>27.85999533333333</v>
       </c>
       <c r="H21">
-        <v>168.720234</v>
+        <v>83.57998600000001</v>
       </c>
       <c r="I21">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617304</v>
       </c>
       <c r="J21">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617305</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N21">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O21">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P21">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q21">
-        <v>12679.18781565559</v>
+        <v>6597.680303594069</v>
       </c>
       <c r="R21">
-        <v>114112.6903409003</v>
+        <v>59379.12273234663</v>
       </c>
       <c r="S21">
-        <v>0.1129105925358937</v>
+        <v>0.0695293017288255</v>
       </c>
       <c r="T21">
-        <v>0.1129105925358937</v>
+        <v>0.06952930172882552</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>46.85139066666667</v>
+        <v>30.09393033333333</v>
       </c>
       <c r="H22">
-        <v>140.554172</v>
+        <v>90.281791</v>
       </c>
       <c r="I22">
-        <v>0.1747880172478804</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="J22">
-        <v>0.1747880172478805</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N22">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O22">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P22">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q22">
-        <v>1131.531674028604</v>
+        <v>833.0322222260537</v>
       </c>
       <c r="R22">
-        <v>10183.78506625744</v>
+        <v>7497.290000034483</v>
       </c>
       <c r="S22">
-        <v>0.01007650597540229</v>
+        <v>0.008778865610908347</v>
       </c>
       <c r="T22">
-        <v>0.01007650597540229</v>
+        <v>0.008778865610908345</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>46.85139066666667</v>
+        <v>30.09393033333333</v>
       </c>
       <c r="H23">
-        <v>140.554172</v>
+        <v>90.281791</v>
       </c>
       <c r="I23">
-        <v>0.1747880172478804</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="J23">
-        <v>0.1747880172478805</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.291612</v>
       </c>
       <c r="O23">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P23">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q23">
-        <v>4.554142578362667</v>
+        <v>2.925250404121333</v>
       </c>
       <c r="R23">
-        <v>40.987283205264</v>
+        <v>26.327253637092</v>
       </c>
       <c r="S23">
-        <v>4.055551069138284E-05</v>
+        <v>3.0827595248852E-05</v>
       </c>
       <c r="T23">
-        <v>4.055551069138283E-05</v>
+        <v>3.082759524885199E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>46.85139066666667</v>
+        <v>30.09393033333333</v>
       </c>
       <c r="H24">
-        <v>140.554172</v>
+        <v>90.281791</v>
       </c>
       <c r="I24">
-        <v>0.1747880172478804</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="J24">
-        <v>0.1747880172478805</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N24">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O24">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P24">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q24">
-        <v>7475.242938057169</v>
+        <v>8193.574429788789</v>
       </c>
       <c r="R24">
-        <v>67277.18644251452</v>
+        <v>73742.1698680991</v>
       </c>
       <c r="S24">
-        <v>0.06656846808780773</v>
+        <v>0.08634754679702124</v>
       </c>
       <c r="T24">
-        <v>0.06656846808780773</v>
+        <v>0.08634754679702122</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>46.85139066666667</v>
+        <v>30.09393033333333</v>
       </c>
       <c r="H25">
-        <v>140.554172</v>
+        <v>90.281791</v>
       </c>
       <c r="I25">
-        <v>0.1747880172478804</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="J25">
-        <v>0.1747880172478805</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N25">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O25">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P25">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q25">
-        <v>453.7944803238782</v>
+        <v>353.1572479914818</v>
       </c>
       <c r="R25">
-        <v>4084.150322914904</v>
+        <v>3178.415231923336</v>
       </c>
       <c r="S25">
-        <v>0.004041126640589772</v>
+        <v>0.003721728808221466</v>
       </c>
       <c r="T25">
-        <v>0.004041126640589771</v>
+        <v>0.003721728808221465</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.85139066666667</v>
+        <v>30.09393033333333</v>
       </c>
       <c r="H26">
-        <v>140.554172</v>
+        <v>90.281791</v>
       </c>
       <c r="I26">
-        <v>0.1747880172478804</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="J26">
-        <v>0.1747880172478805</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N26">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O26">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P26">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q26">
-        <v>10562.53125551</v>
+        <v>7126.710864176219</v>
       </c>
       <c r="R26">
-        <v>95062.78129958997</v>
+        <v>64140.39777758597</v>
       </c>
       <c r="S26">
-        <v>0.09406136103338927</v>
+        <v>0.07510446205456128</v>
       </c>
       <c r="T26">
-        <v>0.09406136103338926</v>
+        <v>0.07510446205456128</v>
       </c>
     </row>
   </sheetData>
